--- a/Assignment 1P2/Input_AE4424_Ass1P2.xlsx
+++ b/Assignment 1P2/Input_AE4424_Ass1P2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\networkscheduling\Assignment 1b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\networkscheduling\Assignment 1P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABEB3E7-DEB8-49A7-91A5-EA2A2E932739}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD91325-1228-436C-A8F7-474A9F09E02F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="576" windowWidth="25524" windowHeight="15600" tabRatio="917" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" tabRatio="917" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="4" r:id="rId1"/>
@@ -6068,8 +6068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H738"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C722" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G738" sqref="G738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24591,7 +24591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Assignment 1P2/Input_AE4424_Ass1P2.xlsx
+++ b/Assignment 1P2/Input_AE4424_Ass1P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\networkscheduling\Assignment 1P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD91325-1228-436C-A8F7-474A9F09E02F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFBA13F-0A2D-49CC-B4BE-71FE4294CFE3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" tabRatio="917" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="288">
   <si>
     <t>Flight Number</t>
   </si>
@@ -894,6 +894,9 @@
   <si>
     <t>To (USED)</t>
   </si>
+  <si>
+    <t>bla</t>
+  </si>
 </sst>
 </file>
 
@@ -6066,10 +6069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H738"/>
+  <dimension ref="A1:H739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C722" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G738" sqref="G738"/>
+    <sheetView tabSelected="1" topLeftCell="C723" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G739" sqref="G739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24573,6 +24576,11 @@
       </c>
       <c r="H738">
         <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G739" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
